--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>524.2973522784511</v>
+        <v>538.7186434066725</v>
       </c>
       <c r="R2">
-        <v>524.2973522784511</v>
+        <v>2154.87457362669</v>
       </c>
       <c r="S2">
-        <v>0.001017607516964708</v>
+        <v>0.0009058307794719384</v>
       </c>
       <c r="T2">
-        <v>0.001017607516964708</v>
+        <v>0.0004398907747120246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>2961.876286270091</v>
+        <v>3179.017669672911</v>
       </c>
       <c r="R3">
-        <v>2961.876286270091</v>
+        <v>19074.10601803747</v>
       </c>
       <c r="S3">
-        <v>0.005748698825446721</v>
+        <v>0.005345372930598695</v>
       </c>
       <c r="T3">
-        <v>0.005748698825446721</v>
+        <v>0.003893740905342997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>5975.046082532514</v>
+        <v>6603.194492539683</v>
       </c>
       <c r="R4">
-        <v>5975.046082532514</v>
+        <v>39619.1669552381</v>
       </c>
       <c r="S4">
-        <v>0.01159695310566137</v>
+        <v>0.01110296977353123</v>
       </c>
       <c r="T4">
-        <v>0.01159695310566137</v>
+        <v>0.008087758915848609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>4089.865688304839</v>
+        <v>4159.084111724791</v>
       </c>
       <c r="R5">
-        <v>4089.865688304839</v>
+        <v>24954.50467034874</v>
       </c>
       <c r="S5">
-        <v>0.007938010843863075</v>
+        <v>0.006993309863919142</v>
       </c>
       <c r="T5">
-        <v>0.007938010843863075</v>
+        <v>0.005094150966531495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>458.9951522138549</v>
+        <v>498.8754088623663</v>
       </c>
       <c r="R6">
-        <v>458.9951522138549</v>
+        <v>2993.252453174198</v>
       </c>
       <c r="S6">
-        <v>0.0008908626280743021</v>
+        <v>0.0008388362014196113</v>
       </c>
       <c r="T6">
-        <v>0.0008908626280743021</v>
+        <v>0.0006110351649467147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>2200.397916162709</v>
+        <v>2431.643570969717</v>
       </c>
       <c r="R7">
-        <v>2200.397916162709</v>
+        <v>9726.574283878866</v>
       </c>
       <c r="S7">
-        <v>0.004270747220198544</v>
+        <v>0.004088697538590038</v>
       </c>
       <c r="T7">
-        <v>0.004270747220198544</v>
+        <v>0.00198555885776151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>14621.92306734257</v>
+        <v>16247.84295305622</v>
       </c>
       <c r="R8">
-        <v>14621.92306734257</v>
+        <v>97487.05771833734</v>
       </c>
       <c r="S8">
-        <v>0.02837965662261274</v>
+        <v>0.02732000539991386</v>
       </c>
       <c r="T8">
-        <v>0.02837965662261274</v>
+        <v>0.01990076725066246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>82602.60519077886</v>
+        <v>95879.69615308932</v>
       </c>
       <c r="R9">
-        <v>82602.60519077886</v>
+        <v>862917.2653778037</v>
       </c>
       <c r="S9">
-        <v>0.1603232051386795</v>
+        <v>0.1612173273838657</v>
       </c>
       <c r="T9">
-        <v>0.1603232051386795</v>
+        <v>0.1761537998662115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>166635.7149486751</v>
+        <v>199153.4327173458</v>
       </c>
       <c r="R10">
-        <v>166635.7149486751</v>
+        <v>1792380.894456112</v>
       </c>
       <c r="S10">
-        <v>0.3234228732791744</v>
+        <v>0.3348673958118139</v>
       </c>
       <c r="T10">
-        <v>0.3234228732791744</v>
+        <v>0.365892210104068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>114060.6588804536</v>
+        <v>125438.6613548908</v>
       </c>
       <c r="R11">
-        <v>114060.6588804536</v>
+        <v>1128947.952194017</v>
       </c>
       <c r="S11">
-        <v>0.2213800687001247</v>
+        <v>0.210919376527391</v>
       </c>
       <c r="T11">
-        <v>0.2213800687001247</v>
+        <v>0.2304606473983172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>12800.73564130799</v>
+        <v>15046.16444138649</v>
       </c>
       <c r="R12">
-        <v>12800.73564130799</v>
+        <v>135415.4799724784</v>
       </c>
       <c r="S12">
-        <v>0.02484491816459713</v>
+        <v>0.02529943789919202</v>
       </c>
       <c r="T12">
-        <v>0.02484491816459713</v>
+        <v>0.02764338171796244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>61366.03381240158</v>
+        <v>73338.77032560746</v>
       </c>
       <c r="R13">
-        <v>61366.03381240158</v>
+        <v>440032.6219536447</v>
       </c>
       <c r="S13">
-        <v>0.11910519292618</v>
+        <v>0.1233157907241932</v>
       </c>
       <c r="T13">
-        <v>0.11910519292618</v>
+        <v>0.08982717293098731</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>9.529202918765943</v>
+        <v>19.8132173075625</v>
       </c>
       <c r="R14">
-        <v>9.529202918765943</v>
+        <v>118.879303845375</v>
       </c>
       <c r="S14">
-        <v>1.849520787903627E-05</v>
+        <v>3.331501943957774E-05</v>
       </c>
       <c r="T14">
-        <v>1.849520787903627E-05</v>
+        <v>2.426772755397854E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>53.83265818431755</v>
+        <v>116.919228032475</v>
       </c>
       <c r="R15">
-        <v>53.83265818431755</v>
+        <v>1052.273052292275</v>
       </c>
       <c r="S15">
-        <v>0.0001044836816140541</v>
+        <v>0.0001965943387334465</v>
       </c>
       <c r="T15">
-        <v>0.0001044836816140541</v>
+        <v>0.000214808422655613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>108.597585553304</v>
+        <v>242.8550209019334</v>
       </c>
       <c r="R16">
-        <v>108.597585553304</v>
+        <v>2185.6951881174</v>
       </c>
       <c r="S16">
-        <v>0.0002107768023298525</v>
+        <v>0.0004083496191836963</v>
       </c>
       <c r="T16">
-        <v>0.0002107768023298525</v>
+        <v>0.000446182418852872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>74.33407757065451</v>
+        <v>152.964517405475</v>
       </c>
       <c r="R17">
-        <v>74.33407757065451</v>
+        <v>1376.680656649275</v>
       </c>
       <c r="S17">
-        <v>0.0001442748390275338</v>
+        <v>0.000257202845546136</v>
       </c>
       <c r="T17">
-        <v>0.0001442748390275338</v>
+        <v>0.0002810321899920568</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>8.342323159115928</v>
+        <v>18.34784633159167</v>
       </c>
       <c r="R18">
-        <v>8.342323159115928</v>
+        <v>165.130616984325</v>
       </c>
       <c r="S18">
-        <v>1.619159570189203E-05</v>
+        <v>3.085106511086669E-05</v>
       </c>
       <c r="T18">
-        <v>1.619159570189203E-05</v>
+        <v>3.370935641588455E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>39.9926456886019</v>
+        <v>89.43199400246252</v>
       </c>
       <c r="R19">
-        <v>39.9926456886019</v>
+        <v>536.591964014775</v>
       </c>
       <c r="S19">
-        <v>7.762163340930566E-05</v>
+        <v>0.0001503758108772683</v>
       </c>
       <c r="T19">
-        <v>7.762163340930566E-05</v>
+        <v>0.0001095385585980737</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>24.13766311100803</v>
+        <v>25.8376331750025</v>
       </c>
       <c r="R20">
-        <v>24.13766311100803</v>
+        <v>155.025799050015</v>
       </c>
       <c r="S20">
-        <v>4.684873443854134E-05</v>
+        <v>4.344479940515949E-05</v>
       </c>
       <c r="T20">
-        <v>4.684873443854134E-05</v>
+        <v>3.164658383327128E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>136.3592084983516</v>
+        <v>152.469741693819</v>
       </c>
       <c r="R21">
-        <v>136.3592084983516</v>
+        <v>1372.227675244371</v>
       </c>
       <c r="S21">
-        <v>0.0002646592720185737</v>
+        <v>0.000256370902798213</v>
       </c>
       <c r="T21">
-        <v>0.0002646592720185737</v>
+        <v>0.0002801231693632206</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>275.0798736369011</v>
+        <v>316.6976290305307</v>
       </c>
       <c r="R22">
-        <v>275.0798736369011</v>
+        <v>2850.278661274776</v>
       </c>
       <c r="S22">
-        <v>0.0005339018897618751</v>
+        <v>0.0005325125901482534</v>
       </c>
       <c r="T22">
-        <v>0.0005339018897618751</v>
+        <v>0.0005818488480947308</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>188.2897171320135</v>
+        <v>199.474978150339</v>
       </c>
       <c r="R23">
-        <v>188.2897171320135</v>
+        <v>1795.274803353051</v>
       </c>
       <c r="S23">
-        <v>0.0003654510759744125</v>
+        <v>0.0003354080597627809</v>
       </c>
       <c r="T23">
-        <v>0.0003654510759744125</v>
+        <v>0.0003664829655207407</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>21.13127275119226</v>
+        <v>23.92670083349033</v>
       </c>
       <c r="R24">
-        <v>21.13127275119226</v>
+        <v>215.340307501413</v>
       </c>
       <c r="S24">
-        <v>4.101363835082741E-05</v>
+        <v>4.02316540024239E-05</v>
       </c>
       <c r="T24">
-        <v>4.101363835082741E-05</v>
+        <v>4.395903866186344E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>101.3021778189181</v>
+        <v>116.6247267808785</v>
       </c>
       <c r="R25">
-        <v>101.3021778189181</v>
+        <v>699.748360685271</v>
       </c>
       <c r="S25">
-        <v>0.0001966171623515624</v>
+        <v>0.0001960991483375802</v>
       </c>
       <c r="T25">
-        <v>0.0001966171623515624</v>
+        <v>0.0001428449025537755</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H26">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I26">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J26">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>410.4929640639589</v>
+        <v>474.022058682445</v>
       </c>
       <c r="R26">
-        <v>410.4929640639589</v>
+        <v>2844.13235209467</v>
       </c>
       <c r="S26">
-        <v>0.0007967248434067229</v>
+        <v>0.0007970464288889948</v>
       </c>
       <c r="T26">
-        <v>0.0007967248434067229</v>
+        <v>0.0005805941557149761</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H27">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I27">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J27">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>2318.969132035671</v>
+        <v>2797.238444982982</v>
       </c>
       <c r="R27">
-        <v>2318.969132035671</v>
+        <v>25175.14600484684</v>
       </c>
       <c r="S27">
-        <v>0.004500881818520703</v>
+        <v>0.00470342861157499</v>
       </c>
       <c r="T27">
-        <v>0.004500881818520703</v>
+        <v>0.005139192143755333</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H28">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I28">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J28">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>4678.097965169384</v>
+        <v>5810.194032715881</v>
       </c>
       <c r="R28">
-        <v>4678.097965169384</v>
+        <v>52291.74629444293</v>
       </c>
       <c r="S28">
-        <v>0.009079709507908054</v>
+        <v>0.009769575740420802</v>
       </c>
       <c r="T28">
-        <v>0.009079709507908054</v>
+        <v>0.01067470797142188</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H29">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I29">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J29">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>3202.116283288236</v>
+        <v>3659.605319032875</v>
       </c>
       <c r="R29">
-        <v>3202.116283288236</v>
+        <v>32936.44787129587</v>
       </c>
       <c r="S29">
-        <v>0.006214980079355109</v>
+        <v>0.006153459100164757</v>
       </c>
       <c r="T29">
-        <v>0.006214980079355109</v>
+        <v>0.006723565142811199</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H30">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I30">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J30">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>359.3653099800276</v>
+        <v>438.9637359486571</v>
       </c>
       <c r="R30">
-        <v>359.3653099800276</v>
+        <v>3950.673623537914</v>
       </c>
       <c r="S30">
-        <v>0.0006974912979873515</v>
+        <v>0.000738097461375812</v>
       </c>
       <c r="T30">
-        <v>0.0006974912979873515</v>
+        <v>0.0008064807586306978</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H31">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I31">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J31">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>1722.777845054002</v>
+        <v>2139.619086141173</v>
       </c>
       <c r="R31">
-        <v>1722.777845054002</v>
+        <v>12837.71451684704</v>
       </c>
       <c r="S31">
-        <v>0.003343735530169428</v>
+        <v>0.003597671712855909</v>
       </c>
       <c r="T31">
-        <v>0.003343735530169428</v>
+        <v>0.002620659342990589</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H32">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I32">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J32">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>1073.617132025669</v>
+        <v>1095.757943972857</v>
       </c>
       <c r="R32">
-        <v>1073.617132025669</v>
+        <v>4383.03177589143</v>
       </c>
       <c r="S32">
-        <v>0.002083781005461155</v>
+        <v>0.001842466906704436</v>
       </c>
       <c r="T32">
-        <v>0.002083781005461155</v>
+        <v>0.0008947412842870724</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H33">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I33">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J33">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>6065.110018315138</v>
+        <v>6466.146862017117</v>
       </c>
       <c r="R33">
-        <v>6065.110018315138</v>
+        <v>38796.8811721027</v>
       </c>
       <c r="S33">
-        <v>0.01177175799006817</v>
+        <v>0.01087253044587773</v>
       </c>
       <c r="T33">
-        <v>0.01177175799006817</v>
+        <v>0.007919899526441393</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H34">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I34">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J34">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>12235.25507228358</v>
+        <v>13430.94936355522</v>
       </c>
       <c r="R34">
-        <v>12235.25507228358</v>
+        <v>80585.69618133131</v>
       </c>
       <c r="S34">
-        <v>0.02374737823761479</v>
+        <v>0.02258352756107098</v>
       </c>
       <c r="T34">
-        <v>0.02374737823761479</v>
+        <v>0.01645056503880529</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H35">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I35">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J35">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>8374.922840190169</v>
+        <v>8459.609688379476</v>
       </c>
       <c r="R35">
-        <v>8374.922840190169</v>
+        <v>50757.65813027685</v>
       </c>
       <c r="S35">
-        <v>0.0162548683474006</v>
+        <v>0.01422444708724968</v>
       </c>
       <c r="T35">
-        <v>0.0162548683474006</v>
+        <v>0.01036154300151098</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H36">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I36">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J36">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>939.8961425077144</v>
+        <v>1014.716492558784</v>
       </c>
       <c r="R36">
-        <v>939.8961425077144</v>
+        <v>6088.298955352706</v>
       </c>
       <c r="S36">
-        <v>0.001824242246552526</v>
+        <v>0.001706199409742147</v>
       </c>
       <c r="T36">
-        <v>0.001824242246552526</v>
+        <v>0.001242850315710524</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H37">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I37">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J37">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>4505.811234406576</v>
+        <v>4945.982086217125</v>
       </c>
       <c r="R37">
-        <v>4505.811234406576</v>
+        <v>19783.9283448685</v>
       </c>
       <c r="S37">
-        <v>0.008745318591120823</v>
+        <v>0.008316442846827993</v>
       </c>
       <c r="T37">
-        <v>0.008745318591120823</v>
+        <v>0.00403864228247145</v>
       </c>
     </row>
   </sheetData>
